--- a/Starbucks_Db.xlsx
+++ b/Starbucks_Db.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{650A114F-BE1B-46F9-A19B-3997F3104019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE77C74-2757-4D18-9350-E9882B52A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="6" r:id="rId1"/>
-    <sheet name="starbucks" sheetId="1" r:id="rId2"/>
-    <sheet name="pivottable1" sheetId="5" r:id="rId3"/>
-    <sheet name="Dashboard1" sheetId="4" r:id="rId4"/>
+    <sheet name="starbucks" sheetId="1" r:id="rId1"/>
+    <sheet name="Beverages" sheetId="6" r:id="rId2"/>
+    <sheet name="variates of beverages" sheetId="5" r:id="rId3"/>
+    <sheet name="Dashboard Starbucks" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Beverage">#N/A</definedName>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="85">
   <si>
     <t>Beverage_category</t>
   </si>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,11 +783,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -888,11 +888,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="blue dark style" pivot="0" table="0" count="10">
+    <tableStyle name="blue dark style" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="blue dark style 2" pivot="0" table="0" count="10">
+    <tableStyle name="blue dark style 2" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -913,519 +913,7 @@
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
-      <x14:dxfs count="48">
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color theme="0"/>
-            </left>
-            <right style="thin">
-              <color theme="0"/>
-            </right>
-            <top style="thin">
-              <color theme="0"/>
-            </top>
-            <bottom style="thin">
-              <color theme="0"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color theme="0"/>
-            </left>
-            <right style="thin">
-              <color theme="0"/>
-            </right>
-            <top style="thin">
-              <color theme="0"/>
-            </top>
-            <bottom style="thin">
-              <color theme="0"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color theme="0"/>
-            </left>
-            <right style="thin">
-              <color theme="0"/>
-            </right>
-            <top style="thin">
-              <color theme="0"/>
-            </top>
-            <bottom style="thin">
-              <color theme="0"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color auto="1"/>
-            </left>
-            <right style="thin">
-              <color auto="1"/>
-            </right>
-            <top style="thin">
-              <color auto="1"/>
-            </top>
-            <bottom style="thin">
-              <color auto="1"/>
-            </bottom>
-          </border>
-        </dxf>
-        <dxf>
-          <border>
-            <left style="thin">
-              <color theme="0"/>
-            </left>
-            <right style="thin">
-              <color theme="0"/>
-            </right>
-            <top style="thin">
-              <color theme="0"/>
-            </top>
-            <bottom style="thin">
-              <color theme="0"/>
-            </bottom>
-          </border>
-        </dxf>
+      <x14:dxfs count="16">
         <dxf>
           <border>
             <left style="thin">
@@ -1688,14 +1176,14 @@
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
         <x14:slicerStyle name="blue dark style">
           <x14:slicerStyleElements>
-            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="47"/>
-            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="46"/>
-            <x14:slicerStyleElement type="selectedItemWithData" dxfId="45"/>
-            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="44"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="43"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="42"/>
-            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="41"/>
-            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="40"/>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="15"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="14"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="13"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="12"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="11"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="10"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="9"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="8"/>
           </x14:slicerStyleElements>
         </x14:slicerStyle>
         <x14:slicerStyle name="blue dark style 2">
@@ -1733,7 +1221,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[starbucks.xlsx]pivottable1!PivotTable5</c:name>
+    <c:name>[Starbucks_Db.xlsx]variates of beverages!PivotTable5</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -1942,49 +1430,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2045,49 +1491,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2151,49 +1555,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2238,6 +1600,24 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -2335,7 +1715,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivottable1!$B$2</c:f>
+              <c:f>'variates of beverages'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2440,10 +1820,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivottable1!$A$3:$A$4</c:f>
+              <c:f>'variates of beverages'!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Smoothies</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FrappuccinoÂ® Light Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FrappuccinoÂ® Blended CrÃ¨me</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shaken Iced Beverages</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FrappuccinoÂ® Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Signature Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TazoÂ® Tea Drinks</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Classic Espresso Drinks</c:v>
                 </c:pt>
               </c:strCache>
@@ -2451,12 +1855,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivottable1!$B$3:$B$4</c:f>
+              <c:f>'variates of beverages'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,7 +1900,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivottable1!$C$2</c:f>
+              <c:f>'variates of beverages'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2557,10 +1985,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivottable1!$A$3:$A$4</c:f>
+              <c:f>'variates of beverages'!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Smoothies</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FrappuccinoÂ® Light Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FrappuccinoÂ® Blended CrÃ¨me</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shaken Iced Beverages</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FrappuccinoÂ® Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Signature Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TazoÂ® Tea Drinks</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Classic Espresso Drinks</c:v>
                 </c:pt>
               </c:strCache>
@@ -2568,12 +2020,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivottable1!$C$3:$C$4</c:f>
+              <c:f>'variates of beverages'!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,7 +2065,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivottable1!$D$2</c:f>
+              <c:f>'variates of beverages'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2671,10 +2147,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivottable1!$A$3:$A$4</c:f>
+              <c:f>'variates of beverages'!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Smoothies</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FrappuccinoÂ® Light Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FrappuccinoÂ® Blended CrÃ¨me</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shaken Iced Beverages</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FrappuccinoÂ® Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Signature Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TazoÂ® Tea Drinks</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Classic Espresso Drinks</c:v>
                 </c:pt>
               </c:strCache>
@@ -2682,12 +2182,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivottable1!$D$3:$D$4</c:f>
+              <c:f>'variates of beverages'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,11 +2426,47 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[starbucks.xlsx]Sheet5!PivotTable6</c:name>
+    <c:name>[Starbucks_Db.xlsx]Beverages!PivotTable6</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Beverages</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="id-ID" baseline="0"/>
+              <a:t> Variates</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3105,49 +2665,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="diamond"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3231,49 +2749,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="square"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3357,49 +2833,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="triangle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3483,26 +2917,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="x"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3842,7 +3257,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$B$3</c:f>
+              <c:f>Beverages!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3892,23 +3307,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$4:$A$5</c:f>
+              <c:f>Beverages!$A$4:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Classic Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FrappuccinoÂ® Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FrappuccinoÂ® Blended CrÃ¨me</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FrappuccinoÂ® Light Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shaken Iced Beverages</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Signature Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Smoothies</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TazoÂ® Tea Drinks</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$4:$B$5</c:f>
+              <c:f>Beverages!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>7.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4899999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3924,7 +3387,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$C$3</c:f>
+              <c:f>Beverages!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3974,23 +3437,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$4:$A$5</c:f>
+              <c:f>Beverages!$A$4:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Classic Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FrappuccinoÂ® Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FrappuccinoÂ® Blended CrÃ¨me</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FrappuccinoÂ® Light Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shaken Iced Beverages</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Signature Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Smoothies</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TazoÂ® Tea Drinks</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$C$4:$C$5</c:f>
+              <c:f>Beverages!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,7 +3517,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$D$3</c:f>
+              <c:f>Beverages!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4056,23 +3567,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$4:$A$5</c:f>
+              <c:f>Beverages!$A$4:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Classic Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FrappuccinoÂ® Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FrappuccinoÂ® Blended CrÃ¨me</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FrappuccinoÂ® Light Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shaken Iced Beverages</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Signature Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Smoothies</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TazoÂ® Tea Drinks</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$D$4:$D$5</c:f>
+              <c:f>Beverages!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>15.859999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4088,7 +3647,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$E$3</c:f>
+              <c:f>Beverages!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4141,23 +3700,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$A$4:$A$5</c:f>
+              <c:f>Beverages!$A$4:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Classic Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FrappuccinoÂ® Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FrappuccinoÂ® Blended CrÃ¨me</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FrappuccinoÂ® Light Blended Coffee</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Shaken Iced Beverages</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Signature Espresso Drinks</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Smoothies</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TazoÂ® Tea Drinks</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$E$4:$E$5</c:f>
+              <c:f>Beverages!$E$4:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4300000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5461,8 +5068,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>148166</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Beverage_prep">
@@ -5485,7 +5092,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5811,8 +5418,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Beverage">
@@ -5835,7 +5442,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5880,7 +5487,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ASUS VIVOBOOK" refreshedDate="45351.793847222223" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="242">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ASUS VIVOBOOK" refreshedDate="45351.793847222223" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="242" xr:uid="{00000000-000A-0000-FFFF-FFFF0B000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R243" sheet="starbucks"/>
   </cacheSource>
@@ -10852,8 +10459,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="11" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
-  <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable6" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+  <location ref="A3:E13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -10871,57 +10478,57 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="34">
-        <item h="1" x="21"/>
-        <item h="1" x="0"/>
-        <item h="1" x="4"/>
+        <item x="21"/>
+        <item x="0"/>
+        <item x="4"/>
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="24"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="30"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" x="25"/>
-        <item h="1" x="22"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="7"/>
-        <item h="1" x="31"/>
-        <item h="1" x="23"/>
-        <item h="1" x="13"/>
-        <item h="1" x="16"/>
-        <item h="1" x="15"/>
-        <item h="1" x="14"/>
-        <item h="1" x="12"/>
-        <item h="1" x="32"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="30"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="7"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="14">
-        <item h="1" x="5"/>
-        <item h="1" x="11"/>
-        <item h="1" x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="0"/>
-        <item h="1" x="4"/>
-        <item h="1" x="10"/>
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="1"/>
         <item x="7"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="12"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10945,9 +10552,33 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="10">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -11087,8 +10718,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A2:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A2:D12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="10">
@@ -11115,57 +10746,57 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="34">
-        <item h="1" x="21"/>
-        <item h="1" x="0"/>
-        <item h="1" x="4"/>
+        <item x="21"/>
+        <item x="0"/>
+        <item x="4"/>
         <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="11"/>
-        <item h="1" x="8"/>
-        <item h="1" x="24"/>
-        <item h="1" x="6"/>
-        <item h="1" x="10"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="30"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" x="25"/>
-        <item h="1" x="22"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="7"/>
-        <item h="1" x="31"/>
-        <item h="1" x="23"/>
-        <item h="1" x="13"/>
-        <item h="1" x="16"/>
-        <item h="1" x="15"/>
-        <item h="1" x="14"/>
-        <item h="1" x="12"/>
-        <item h="1" x="32"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="30"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="7"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="32"/>
+        <item x="3"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="14">
-        <item h="1" x="5"/>
-        <item h="1" x="11"/>
-        <item h="1" x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="0"/>
-        <item h="1" x="4"/>
-        <item h="1" x="10"/>
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="1"/>
         <item x="7"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="12"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11190,7 +10821,31 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i>
       <x/>
     </i>
@@ -11271,7 +10926,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Beverage_prep" sourceName="Beverage_prep">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Beverage_prep" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Beverage_prep">
   <pivotTables>
     <pivotTable tabId="5" name="PivotTable5"/>
     <pivotTable tabId="6" name="PivotTable6"/>
@@ -11279,19 +10934,19 @@
   <data>
     <tabular pivotCacheId="1273472224">
       <items count="13">
-        <i x="5"/>
-        <i x="8"/>
-        <i x="4"/>
-        <i x="6"/>
+        <i x="5" s="1"/>
+        <i x="11" s="1"/>
+        <i x="2" s="1"/>
+        <i x="8" s="1"/>
+        <i x="0" s="1"/>
+        <i x="4" s="1"/>
+        <i x="10" s="1"/>
+        <i x="6" s="1"/>
+        <i x="1" s="1"/>
         <i x="7" s="1"/>
-        <i x="9"/>
-        <i x="11" nd="1"/>
-        <i x="2" nd="1"/>
-        <i x="0" nd="1"/>
-        <i x="10" nd="1"/>
-        <i x="1" nd="1"/>
-        <i x="3" nd="1"/>
-        <i x="12" nd="1"/>
+        <i x="3" s="1"/>
+        <i x="9" s="1"/>
+        <i x="12" s="1"/>
       </items>
     </tabular>
   </data>
@@ -11304,7 +10959,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Beverage" sourceName="Beverage">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Beverage" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Beverage">
   <pivotTables>
     <pivotTable tabId="5" name="PivotTable5"/>
     <pivotTable tabId="6" name="PivotTable6"/>
@@ -11312,39 +10967,39 @@
   <data>
     <tabular pivotCacheId="1273472224">
       <items count="33">
+        <i x="21" s="1"/>
+        <i x="0" s="1"/>
+        <i x="4" s="1"/>
         <i x="1" s="1"/>
-        <i x="2"/>
-        <i x="5"/>
-        <i x="29"/>
-        <i x="26"/>
-        <i x="8"/>
-        <i x="24"/>
-        <i x="10"/>
-        <i x="18"/>
-        <i x="30"/>
-        <i x="27"/>
-        <i x="28"/>
-        <i x="25"/>
-        <i x="7"/>
-        <i x="31"/>
-        <i x="13"/>
-        <i x="16"/>
-        <i x="15"/>
-        <i x="14"/>
-        <i x="32"/>
-        <i x="3"/>
-        <i x="9"/>
-        <i x="21" nd="1"/>
-        <i x="0" nd="1"/>
-        <i x="4" nd="1"/>
-        <i x="11" nd="1"/>
-        <i x="6" nd="1"/>
-        <i x="17" nd="1"/>
-        <i x="22" nd="1"/>
-        <i x="19" nd="1"/>
-        <i x="20" nd="1"/>
-        <i x="23" nd="1"/>
-        <i x="12" nd="1"/>
+        <i x="2" s="1"/>
+        <i x="5" s="1"/>
+        <i x="29" s="1"/>
+        <i x="26" s="1"/>
+        <i x="11" s="1"/>
+        <i x="8" s="1"/>
+        <i x="24" s="1"/>
+        <i x="6" s="1"/>
+        <i x="10" s="1"/>
+        <i x="17" s="1"/>
+        <i x="18" s="1"/>
+        <i x="30" s="1"/>
+        <i x="27" s="1"/>
+        <i x="28" s="1"/>
+        <i x="25" s="1"/>
+        <i x="22" s="1"/>
+        <i x="19" s="1"/>
+        <i x="20" s="1"/>
+        <i x="7" s="1"/>
+        <i x="31" s="1"/>
+        <i x="23" s="1"/>
+        <i x="13" s="1"/>
+        <i x="16" s="1"/>
+        <i x="15" s="1"/>
+        <i x="14" s="1"/>
+        <i x="12" s="1"/>
+        <i x="32" s="1"/>
+        <i x="3" s="1"/>
+        <i x="9" s="1"/>
       </items>
     </tabular>
   </data>
@@ -11352,9 +11007,9 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Beverage_prep" cache="Slicer_Beverage_prep" caption="Choose the variaties" style="blue dark style" rowHeight="241300"/>
-  <slicer name="Beverage" cache="Slicer_Beverage" caption="Beverage" style="blue dark style" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Beverage_prep" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Beverage_prep" caption="Variaties of Beverages " style="blue dark style" rowHeight="241300"/>
+  <slicer name="Beverage" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Beverage" caption="Beverages" style="blue dark style" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -11654,86 +11309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25371,9 +24947,224 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.3800000000000008</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15.859999999999996</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.6999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.9800000000000011</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.4200000000000026</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.2600000000000016</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12.549999999999999</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5.85</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5.4899999999999993</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.4300000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="5">
+        <v>23.790000000000003</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8.83</v>
+      </c>
+      <c r="D13" s="5">
+        <v>50.230000000000004</v>
+      </c>
+      <c r="E13" s="5">
+        <v>18.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
@@ -25381,7 +25172,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
@@ -25389,7 +25180,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B2" t="s">
@@ -25403,31 +25194,143 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="B11" s="5">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>14</v>
+      <c r="B12" s="5">
+        <v>242</v>
+      </c>
+      <c r="C12" s="5">
+        <v>241</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7977</v>
       </c>
     </row>
   </sheetData>
@@ -25436,7 +25339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
